--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5552238805970149</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5565476190476191</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7140115163147792</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4880952380952381</v>
+        <v>0.4851190476190476</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06239905415181751</v>
+        <v>0.08936750122759805</v>
       </c>
       <c r="J2" t="n">
-        <v>781.1457594054157</v>
+        <v>1170.444813807283</v>
       </c>
       <c r="K2" t="n">
-        <v>804935.7259051559</v>
+        <v>1868224.190742088</v>
       </c>
       <c r="L2" t="n">
-        <v>897.1821029786294</v>
+        <v>1366.829978725258</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8516599201444881</v>
+        <v>0.6557085035192805</v>
       </c>
     </row>
   </sheetData>
